--- a/Code/Results/Cases/Case_3_152/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_152/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.11909154840623</v>
+        <v>12.17857037013896</v>
       </c>
       <c r="C2">
-        <v>8.70893004552104</v>
+        <v>11.79194470087159</v>
       </c>
       <c r="D2">
-        <v>5.371579750809168</v>
+        <v>6.19782700849044</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.95609914175629</v>
+        <v>29.8353199738136</v>
       </c>
       <c r="G2">
-        <v>2.112716761236765</v>
+        <v>3.671543458454487</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.9047049574626</v>
+        <v>8.199793783997894</v>
       </c>
       <c r="L2">
-        <v>7.143064165724527</v>
+        <v>11.09203884864309</v>
       </c>
       <c r="M2">
-        <v>10.14247776104027</v>
+        <v>14.7303778700736</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.2449308900657</v>
+        <v>26.76033472215586</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.23078454831226</v>
+        <v>11.96517668011687</v>
       </c>
       <c r="C3">
-        <v>8.772904992680298</v>
+        <v>11.810476854906</v>
       </c>
       <c r="D3">
-        <v>5.270717220118342</v>
+        <v>6.161121354984201</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.67727584089008</v>
+        <v>29.87071967616454</v>
       </c>
       <c r="G3">
-        <v>2.117769146079918</v>
+        <v>3.673433943802937</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.34729822090296</v>
+        <v>8.033240175752855</v>
       </c>
       <c r="L3">
-        <v>7.044252390676921</v>
+        <v>11.10068201662378</v>
       </c>
       <c r="M3">
-        <v>9.805642372202254</v>
+        <v>14.70211086962703</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.23452704817654</v>
+        <v>26.82950733524058</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.65333745705745</v>
+        <v>11.83464196311016</v>
       </c>
       <c r="C4">
-        <v>8.813560375031985</v>
+        <v>11.82251492575145</v>
       </c>
       <c r="D4">
-        <v>5.207322780993011</v>
+        <v>6.138060997384338</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.52217694333936</v>
+        <v>29.89931537573925</v>
       </c>
       <c r="G4">
-        <v>2.120969053082584</v>
+        <v>3.674656707862278</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.988945124686403</v>
+        <v>7.93055796172069</v>
       </c>
       <c r="L4">
-        <v>6.98656673109386</v>
+        <v>11.10767087684619</v>
       </c>
       <c r="M4">
-        <v>9.597383464746191</v>
+        <v>14.68705483098625</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.2416020273731</v>
+        <v>26.87706400472029</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.40991981309814</v>
+        <v>11.78164319587799</v>
       </c>
       <c r="C5">
-        <v>8.83047675244705</v>
+        <v>11.82758682049067</v>
       </c>
       <c r="D5">
-        <v>5.181137445266406</v>
+        <v>6.128534788125751</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.4629742966791</v>
+        <v>29.9126912118404</v>
       </c>
       <c r="G5">
-        <v>2.122298163969371</v>
+        <v>3.675170632791104</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.838935963094734</v>
+        <v>7.888667287472749</v>
       </c>
       <c r="L5">
-        <v>6.963818898504178</v>
+        <v>11.11094225454307</v>
       </c>
       <c r="M5">
-        <v>9.5122764934237</v>
+        <v>14.68150247736357</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.24775273902792</v>
+        <v>26.89772032103919</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.36900960803882</v>
+        <v>11.77285669722892</v>
       </c>
       <c r="C6">
-        <v>8.833306879382814</v>
+        <v>11.82843906284682</v>
       </c>
       <c r="D6">
-        <v>5.176768659212012</v>
+        <v>6.126945256916471</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.4533838146628</v>
+        <v>29.91501623906639</v>
       </c>
       <c r="G6">
-        <v>2.122520394823499</v>
+        <v>3.67525691560151</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.81378927651936</v>
+        <v>7.881710273230976</v>
       </c>
       <c r="L6">
-        <v>6.960087739646509</v>
+        <v>11.11151104480833</v>
       </c>
       <c r="M6">
-        <v>9.498133819045808</v>
+        <v>14.68061586206824</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.24896795971458</v>
+        <v>26.90122733050747</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.65008751839282</v>
+        <v>11.83392631724652</v>
       </c>
       <c r="C7">
-        <v>8.813787097771682</v>
+        <v>11.82258265314724</v>
       </c>
       <c r="D7">
-        <v>5.206971037315978</v>
+        <v>6.13793304221524</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.5213623848183</v>
+        <v>29.89948879454776</v>
       </c>
       <c r="G7">
-        <v>2.120986875504099</v>
+        <v>3.674663575448859</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.986938045243685</v>
+        <v>7.929993121115989</v>
       </c>
       <c r="L7">
-        <v>6.986256859972769</v>
+        <v>11.10771328112603</v>
       </c>
       <c r="M7">
-        <v>9.59623648470151</v>
+        <v>14.68697758306782</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.24167190366783</v>
+        <v>26.8773374168349</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.81941880025024</v>
+        <v>12.10493350315489</v>
       </c>
       <c r="C8">
-        <v>8.730705353172894</v>
+        <v>11.79819806505938</v>
       </c>
       <c r="D8">
-        <v>5.337116002251303</v>
+        <v>6.185280967676862</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.85659460309028</v>
+        <v>29.84610084482558</v>
       </c>
       <c r="G8">
-        <v>2.114438879948487</v>
+        <v>3.67218245935829</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.71589122267526</v>
+        <v>8.142487187612875</v>
       </c>
       <c r="L8">
-        <v>7.108380097569452</v>
+        <v>11.09467021432461</v>
       </c>
       <c r="M8">
-        <v>10.02670649174262</v>
+        <v>14.72015700591191</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.23847878356488</v>
+        <v>26.78312904903049</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.86072062230097</v>
+        <v>12.6371521731457</v>
       </c>
       <c r="C9">
-        <v>8.57853480796129</v>
+        <v>11.75558792843673</v>
       </c>
       <c r="D9">
-        <v>5.580028697816104</v>
+        <v>6.273870619933921</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>22.64328892883422</v>
+        <v>29.79591164397029</v>
       </c>
       <c r="G9">
-        <v>2.102347467174898</v>
+        <v>3.667806707921017</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.01526595393274</v>
+        <v>8.553405924787262</v>
       </c>
       <c r="L9">
-        <v>7.371097199644737</v>
+        <v>11.08241637441881</v>
       </c>
       <c r="M9">
-        <v>10.85455128175388</v>
+        <v>14.80324667388724</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.3442606752492</v>
+        <v>26.63881130915112</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.21029386665759</v>
+        <v>13.02458900866846</v>
       </c>
       <c r="C10">
-        <v>8.473073954333668</v>
+        <v>11.72742551743562</v>
       </c>
       <c r="D10">
-        <v>5.750159799780473</v>
+        <v>6.336217121594922</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>23.30158704400661</v>
+        <v>29.79232621466007</v>
       </c>
       <c r="G10">
-        <v>2.093882052732063</v>
+        <v>3.664887275644726</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.88848520353348</v>
+        <v>8.848629994482513</v>
       </c>
       <c r="L10">
-        <v>7.577621598823468</v>
+        <v>11.08150235314773</v>
       </c>
       <c r="M10">
-        <v>11.44707200638121</v>
+        <v>14.8749569489224</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.49733702113767</v>
+        <v>26.55753102546429</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.79237779196217</v>
+        <v>13.19925033033208</v>
       </c>
       <c r="C11">
-        <v>8.426426745027747</v>
+        <v>11.71528956698494</v>
       </c>
       <c r="D11">
-        <v>5.825590397417177</v>
+        <v>6.363955204740038</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>23.6186599769663</v>
+        <v>29.79792186073095</v>
       </c>
       <c r="G11">
-        <v>2.090112653041494</v>
+        <v>3.663622639795459</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.26784266294289</v>
+        <v>8.980868059720926</v>
       </c>
       <c r="L11">
-        <v>7.674359537736171</v>
+        <v>11.08283368649401</v>
       </c>
       <c r="M11">
-        <v>11.71222486287694</v>
+        <v>14.90981836210712</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.58481596234615</v>
+        <v>26.52594856013663</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.00828009214378</v>
+        <v>13.26509775720957</v>
       </c>
       <c r="C12">
-        <v>8.408949862067033</v>
+        <v>11.71079059524586</v>
       </c>
       <c r="D12">
-        <v>5.853860011705648</v>
+        <v>6.374366667406283</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>23.74126316435893</v>
+        <v>29.80107847805353</v>
       </c>
       <c r="G12">
-        <v>2.08869621503937</v>
+        <v>3.663152826023445</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.40891928379078</v>
+        <v>9.030599251681403</v>
       </c>
       <c r="L12">
-        <v>7.711380191702768</v>
+        <v>11.08358806152331</v>
       </c>
       <c r="M12">
-        <v>11.81193257617574</v>
+        <v>14.92333442946568</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.62062609308457</v>
+        <v>26.51476587106353</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.96198175030861</v>
+        <v>13.25093036923801</v>
       </c>
       <c r="C13">
-        <v>8.412705542293738</v>
+        <v>11.71175523796794</v>
       </c>
       <c r="D13">
-        <v>5.847784914474</v>
+        <v>6.372128521884206</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>23.71474564100949</v>
+        <v>29.8003525259917</v>
       </c>
       <c r="G13">
-        <v>2.08900079612067</v>
+        <v>3.66325360585657</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.37865059124949</v>
+        <v>9.019904805307185</v>
       </c>
       <c r="L13">
-        <v>7.70339006916214</v>
+        <v>11.08341448168197</v>
       </c>
       <c r="M13">
-        <v>11.7904908461766</v>
+        <v>14.9204096216116</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.61279252523619</v>
+        <v>26.51713968830543</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.81023045275542</v>
+        <v>13.20467387148596</v>
       </c>
       <c r="C14">
-        <v>8.424985175501453</v>
+        <v>11.71491749945503</v>
       </c>
       <c r="D14">
-        <v>5.827922119266133</v>
+        <v>6.364813627965623</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>23.6286958153806</v>
+        <v>29.79816077261387</v>
       </c>
       <c r="G14">
-        <v>2.089995906968828</v>
+        <v>3.663583806283438</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.2795007986726</v>
+        <v>8.984966643919829</v>
       </c>
       <c r="L14">
-        <v>7.677397542813121</v>
+        <v>11.08289074062171</v>
       </c>
       <c r="M14">
-        <v>11.72044225972592</v>
+        <v>14.91092407105041</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.58770762915444</v>
+        <v>26.5250129753259</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.71669151045243</v>
+        <v>13.17630039523334</v>
       </c>
       <c r="C15">
-        <v>8.432531107256731</v>
+        <v>11.71686704914813</v>
       </c>
       <c r="D15">
-        <v>5.815716916061418</v>
+        <v>6.360320939336578</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>23.57631790563462</v>
+        <v>29.79695333691399</v>
       </c>
       <c r="G15">
-        <v>2.090606843457937</v>
+        <v>3.663787244275062</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.21843289731799</v>
+        <v>8.963519771083647</v>
       </c>
       <c r="L15">
-        <v>7.661526539074019</v>
+        <v>11.08260248929699</v>
       </c>
       <c r="M15">
-        <v>11.67744246927415</v>
+        <v>14.90515467149834</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.57269537281909</v>
+        <v>26.52993680820021</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.17161752258147</v>
+        <v>13.01313694418921</v>
       </c>
       <c r="C16">
-        <v>8.476148873401341</v>
+        <v>11.72823217959072</v>
       </c>
       <c r="D16">
-        <v>5.745189678890368</v>
+        <v>6.334391594344551</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>23.28122020224622</v>
+        <v>29.79210583312491</v>
       </c>
       <c r="G16">
-        <v>2.094129967818128</v>
+        <v>3.664971195097554</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.86333279212367</v>
+        <v>8.839942271517232</v>
       </c>
       <c r="L16">
-        <v>7.571354545993336</v>
+        <v>11.08145042065089</v>
       </c>
       <c r="M16">
-        <v>11.4296492029259</v>
+        <v>14.87272313254315</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.49198924869482</v>
+        <v>26.55970365323023</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.8291176190322</v>
+        <v>12.91258808541612</v>
       </c>
       <c r="C17">
-        <v>8.50324447822045</v>
+        <v>11.73537694738457</v>
       </c>
       <c r="D17">
-        <v>5.701411834388255</v>
+        <v>6.318323139854271</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>23.10470030198537</v>
+        <v>29.79098213765705</v>
       </c>
       <c r="G17">
-        <v>2.096311642956558</v>
+        <v>3.665713724321537</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.6409043149928</v>
+        <v>8.763568430559168</v>
       </c>
       <c r="L17">
-        <v>7.516741863099181</v>
+        <v>11.08119046569031</v>
       </c>
       <c r="M17">
-        <v>11.27645966255333</v>
+        <v>14.85339607932518</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.4471333612569</v>
+        <v>26.57934687512518</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.62911982348916</v>
+        <v>12.85460949053912</v>
       </c>
       <c r="C18">
-        <v>8.518954309410995</v>
+        <v>11.73955001535769</v>
       </c>
       <c r="D18">
-        <v>5.676047870663012</v>
+        <v>6.309022445974133</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>23.00482839229813</v>
+        <v>29.79101616676543</v>
       </c>
       <c r="G18">
-        <v>2.097574210905075</v>
+        <v>3.666146780327689</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.51128680207781</v>
+        <v>8.719448930639274</v>
       </c>
       <c r="L18">
-        <v>7.485593353203232</v>
+        <v>11.08120546188742</v>
       </c>
       <c r="M18">
-        <v>11.18793950473115</v>
+        <v>14.84249097451695</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.42300606115584</v>
+        <v>26.59115261138107</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.56088683535839</v>
+        <v>12.83495596828904</v>
       </c>
       <c r="C19">
-        <v>8.524294990012397</v>
+        <v>11.74097387944472</v>
       </c>
       <c r="D19">
-        <v>5.667428833341122</v>
+        <v>6.305863417718256</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>22.97129806315795</v>
+        <v>29.79114457260755</v>
       </c>
       <c r="G19">
-        <v>2.098003044540799</v>
+        <v>3.666294432854036</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.46711192790936</v>
+        <v>8.70447948901967</v>
       </c>
       <c r="L19">
-        <v>7.475092622983377</v>
+        <v>11.08123882377872</v>
       </c>
       <c r="M19">
-        <v>11.15790003585449</v>
+        <v>14.8388352020059</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.4151206217159</v>
+        <v>26.59523694172487</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.8658874809991</v>
+        <v>12.923307227986</v>
       </c>
       <c r="C20">
-        <v>8.500347176886597</v>
+        <v>11.73460979699666</v>
       </c>
       <c r="D20">
-        <v>5.706091205685756</v>
+        <v>6.320039732758922</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>23.12331955832662</v>
+        <v>29.79103135189941</v>
       </c>
       <c r="G20">
-        <v>2.096078605757254</v>
+        <v>3.665634062976265</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.66475642274039</v>
+        <v>8.77171871215304</v>
       </c>
       <c r="L20">
-        <v>7.522528325863111</v>
+        <v>11.08120111853406</v>
       </c>
       <c r="M20">
-        <v>11.29280987581574</v>
+        <v>14.8554316596574</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.45173437712674</v>
+        <v>26.57720328751105</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.85492568705506</v>
+        <v>13.21826898108249</v>
       </c>
       <c r="C21">
-        <v>8.421373291315595</v>
+        <v>11.71398604715507</v>
       </c>
       <c r="D21">
-        <v>5.833764381964198</v>
+        <v>6.366964716979925</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>23.65390194334351</v>
+        <v>29.79877639768929</v>
       </c>
       <c r="G21">
-        <v>2.089703327997693</v>
+        <v>3.663486572437005</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.30869347666379</v>
+        <v>8.995238546878788</v>
       </c>
       <c r="L21">
-        <v>7.68502174469411</v>
+        <v>11.08303779355433</v>
       </c>
       <c r="M21">
-        <v>11.74103671814756</v>
+        <v>14.91370172345113</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.59500190581976</v>
+        <v>26.52267930408266</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.47500059165129</v>
+        <v>13.40930769594273</v>
       </c>
       <c r="C22">
-        <v>8.370849997251344</v>
+        <v>11.70107037414661</v>
       </c>
       <c r="D22">
-        <v>5.915485870198807</v>
+        <v>6.39709342470421</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>24.0154411453908</v>
+        <v>29.80988529625402</v>
       </c>
       <c r="G22">
-        <v>2.085600154072535</v>
+        <v>3.662135946882891</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.71452019298662</v>
+        <v>9.139293537665777</v>
       </c>
       <c r="L22">
-        <v>7.79347730674593</v>
+        <v>11.08569613731465</v>
       </c>
       <c r="M22">
-        <v>12.02987494159619</v>
+        <v>14.95361587339951</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.70433173979226</v>
+        <v>26.49157369174848</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.14644315586735</v>
+        <v>13.30752621405037</v>
       </c>
       <c r="C23">
-        <v>8.397716583586991</v>
+        <v>11.70791233301627</v>
       </c>
       <c r="D23">
-        <v>5.872030680587416</v>
+        <v>6.38106340048404</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>23.82112897818914</v>
+        <v>29.80340366540699</v>
       </c>
       <c r="G23">
-        <v>2.087784560396407</v>
+        <v>3.662851976932727</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.49929788195331</v>
+        <v>9.062609369284521</v>
       </c>
       <c r="L23">
-        <v>7.735390112931223</v>
+        <v>11.08414428765688</v>
       </c>
       <c r="M23">
-        <v>11.87611200326051</v>
+        <v>14.93214788346086</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.64450573323757</v>
+        <v>26.50776049535061</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.84927345561354</v>
+        <v>12.9184616335078</v>
       </c>
       <c r="C24">
-        <v>8.501656634760648</v>
+        <v>11.73495642179223</v>
       </c>
       <c r="D24">
-        <v>5.703976269927264</v>
+        <v>6.319263856273404</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>23.11489677253088</v>
+        <v>29.7910069836859</v>
       </c>
       <c r="G24">
-        <v>2.096183935983559</v>
+        <v>3.665670058660183</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.65397830518156</v>
+        <v>8.768034623872479</v>
       </c>
       <c r="L24">
-        <v>7.519911489320723</v>
+        <v>11.08119579007303</v>
       </c>
       <c r="M24">
-        <v>11.28541933897938</v>
+        <v>14.85451073071253</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.44964909332211</v>
+        <v>26.57817080688713</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.33510959135418</v>
+        <v>12.49351679657644</v>
       </c>
       <c r="C25">
-        <v>8.618572138823076</v>
+        <v>11.76656084581854</v>
       </c>
       <c r="D25">
-        <v>5.515721747319406</v>
+        <v>6.250375692077418</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>22.4164359897767</v>
+        <v>29.80364490478907</v>
       </c>
       <c r="G25">
-        <v>2.105542164501348</v>
+        <v>3.668938360444367</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.67794478812572</v>
+        <v>8.443195554783166</v>
       </c>
       <c r="L25">
-        <v>7.297603069657995</v>
+        <v>11.08430800810795</v>
       </c>
       <c r="M25">
-        <v>10.63297959831235</v>
+        <v>14.77887089765186</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.30291475728679</v>
+        <v>26.67351380495395</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_152/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_152/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.17857037013896</v>
+        <v>13.11909154840624</v>
       </c>
       <c r="C2">
-        <v>11.79194470087159</v>
+        <v>8.708930045521178</v>
       </c>
       <c r="D2">
-        <v>6.19782700849044</v>
+        <v>5.371579750809047</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.8353199738136</v>
+        <v>21.9560991417561</v>
       </c>
       <c r="G2">
-        <v>3.671543458454487</v>
+        <v>2.112716761236765</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.199793783997894</v>
+        <v>10.90470495746265</v>
       </c>
       <c r="L2">
-        <v>11.09203884864309</v>
+        <v>7.143064165724502</v>
       </c>
       <c r="M2">
-        <v>14.7303778700736</v>
+        <v>10.14247776104025</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.76033472215586</v>
+        <v>18.24493089006546</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.96517668011687</v>
+        <v>12.23078454831231</v>
       </c>
       <c r="C3">
-        <v>11.810476854906</v>
+        <v>8.772904992680019</v>
       </c>
       <c r="D3">
-        <v>6.161121354984201</v>
+        <v>5.27071722011851</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.87071967616454</v>
+        <v>21.67727584088994</v>
       </c>
       <c r="G3">
-        <v>3.673433943802937</v>
+        <v>2.117769146079515</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.033240175752855</v>
+        <v>10.34729822090295</v>
       </c>
       <c r="L3">
-        <v>11.10068201662378</v>
+        <v>7.044252390676964</v>
       </c>
       <c r="M3">
-        <v>14.70211086962703</v>
+        <v>9.805642372202236</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.82950733524058</v>
+        <v>18.23452704817649</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.83464196311016</v>
+        <v>11.65333745705745</v>
       </c>
       <c r="C4">
-        <v>11.82251492575145</v>
+        <v>8.813560375031852</v>
       </c>
       <c r="D4">
-        <v>6.138060997384338</v>
+        <v>5.207322780993005</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>29.89931537573925</v>
+        <v>21.52217694333951</v>
       </c>
       <c r="G4">
-        <v>3.674656707862278</v>
+        <v>2.120969053082585</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.93055796172069</v>
+        <v>9.988945124686373</v>
       </c>
       <c r="L4">
-        <v>11.10767087684619</v>
+        <v>6.986566731093732</v>
       </c>
       <c r="M4">
-        <v>14.68705483098625</v>
+        <v>9.597383464746148</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.87706400472029</v>
+        <v>18.24160202737321</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.78164319587799</v>
+        <v>11.4099198130981</v>
       </c>
       <c r="C5">
-        <v>11.82758682049067</v>
+        <v>8.830476752447318</v>
       </c>
       <c r="D5">
-        <v>6.128534788125751</v>
+        <v>5.181137445266578</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>29.9126912118404</v>
+        <v>21.46297429667917</v>
       </c>
       <c r="G5">
-        <v>3.675170632791104</v>
+        <v>2.122298163969103</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.888667287472749</v>
+        <v>9.838935963094736</v>
       </c>
       <c r="L5">
-        <v>11.11094225454307</v>
+        <v>6.963818898504154</v>
       </c>
       <c r="M5">
-        <v>14.68150247736357</v>
+        <v>9.512276493423718</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.89772032103919</v>
+        <v>18.24775273902803</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.77285669722892</v>
+        <v>11.36900960803886</v>
       </c>
       <c r="C6">
-        <v>11.82843906284682</v>
+        <v>8.833306879382544</v>
       </c>
       <c r="D6">
-        <v>6.126945256916471</v>
+        <v>5.176768659212</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>29.91501623906639</v>
+        <v>21.45338381466269</v>
       </c>
       <c r="G6">
-        <v>3.67525691560151</v>
+        <v>2.122520394823231</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.881710273230976</v>
+        <v>9.81378927651936</v>
       </c>
       <c r="L6">
-        <v>11.11151104480833</v>
+        <v>6.96008773964651</v>
       </c>
       <c r="M6">
-        <v>14.68061586206824</v>
+        <v>9.498133819045794</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.90122733050747</v>
+        <v>18.2489679597145</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.83392631724652</v>
+        <v>11.65008751839289</v>
       </c>
       <c r="C7">
-        <v>11.82258265314724</v>
+        <v>8.813787097771547</v>
       </c>
       <c r="D7">
-        <v>6.13793304221524</v>
+        <v>5.206971037316053</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>29.89948879454776</v>
+        <v>21.52136238481836</v>
       </c>
       <c r="G7">
-        <v>3.674663575448859</v>
+        <v>2.120986875503832</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.929993121115989</v>
+        <v>9.98693804524377</v>
       </c>
       <c r="L7">
-        <v>11.10771328112603</v>
+        <v>6.986256859972767</v>
       </c>
       <c r="M7">
-        <v>14.68697758306782</v>
+        <v>9.596236484701469</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.8773374168349</v>
+        <v>18.24167190366788</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.10493350315489</v>
+        <v>12.81941880025021</v>
       </c>
       <c r="C8">
-        <v>11.79819806505938</v>
+        <v>8.730705353173022</v>
       </c>
       <c r="D8">
-        <v>6.185280967676862</v>
+        <v>5.337116002251293</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.84610084482558</v>
+        <v>21.8565946030902</v>
       </c>
       <c r="G8">
-        <v>3.67218245935829</v>
+        <v>2.114438879948623</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.142487187612875</v>
+        <v>10.71589122267524</v>
       </c>
       <c r="L8">
-        <v>11.09467021432461</v>
+        <v>7.108380097569332</v>
       </c>
       <c r="M8">
-        <v>14.72015700591191</v>
+        <v>10.02670649174255</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.78312904903049</v>
+        <v>18.23847878356481</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.6371521731457</v>
+        <v>14.86072062230093</v>
       </c>
       <c r="C9">
-        <v>11.75558792843673</v>
+        <v>8.57853480796156</v>
       </c>
       <c r="D9">
-        <v>6.273870619933921</v>
+        <v>5.580028697816219</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>29.79591164397029</v>
+        <v>22.64328892883418</v>
       </c>
       <c r="G9">
-        <v>3.667806707921017</v>
+        <v>2.102347467174898</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.553405924787262</v>
+        <v>12.01526595393272</v>
       </c>
       <c r="L9">
-        <v>11.08241637441881</v>
+        <v>7.37109719964484</v>
       </c>
       <c r="M9">
-        <v>14.80324667388724</v>
+        <v>10.85455128175396</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.63881130915112</v>
+        <v>18.3442606752492</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.02458900866846</v>
+        <v>16.21029386665758</v>
       </c>
       <c r="C10">
-        <v>11.72742551743562</v>
+        <v>8.473073954333403</v>
       </c>
       <c r="D10">
-        <v>6.336217121594922</v>
+        <v>5.750159799780761</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>29.79232621466007</v>
+        <v>23.30158704400652</v>
       </c>
       <c r="G10">
-        <v>3.664887275644726</v>
+        <v>2.093882052731929</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.848629994482513</v>
+        <v>12.88848520353344</v>
       </c>
       <c r="L10">
-        <v>11.08150235314773</v>
+        <v>7.577621598823487</v>
       </c>
       <c r="M10">
-        <v>14.8749569489224</v>
+        <v>11.44707200638119</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>26.55753102546429</v>
+        <v>18.49733702113767</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.19925033033208</v>
+        <v>16.79237779196218</v>
       </c>
       <c r="C11">
-        <v>11.71528956698494</v>
+        <v>8.426426745027875</v>
       </c>
       <c r="D11">
-        <v>6.363955204740038</v>
+        <v>5.825590397417295</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>29.79792186073095</v>
+        <v>23.61865997696631</v>
       </c>
       <c r="G11">
-        <v>3.663622639795459</v>
+        <v>2.090112653041761</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.980868059720926</v>
+        <v>13.26784266294294</v>
       </c>
       <c r="L11">
-        <v>11.08283368649401</v>
+        <v>7.67435953773616</v>
       </c>
       <c r="M11">
-        <v>14.90981836210712</v>
+        <v>11.71222486287692</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>26.52594856013663</v>
+        <v>18.58481596234619</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.26509775720957</v>
+        <v>17.00828009214373</v>
       </c>
       <c r="C12">
-        <v>11.71079059524586</v>
+        <v>8.40894986206704</v>
       </c>
       <c r="D12">
-        <v>6.374366667406283</v>
+        <v>5.853860011705481</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>29.80107847805353</v>
+        <v>23.74126316435889</v>
       </c>
       <c r="G12">
-        <v>3.663152826023445</v>
+        <v>2.088696215039636</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.030599251681403</v>
+        <v>13.40891928379073</v>
       </c>
       <c r="L12">
-        <v>11.08358806152331</v>
+        <v>7.711380191702828</v>
       </c>
       <c r="M12">
-        <v>14.92333442946568</v>
+        <v>11.81193257617574</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>26.51476587106353</v>
+        <v>18.62062609308452</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.25093036923801</v>
+        <v>16.96198175030864</v>
       </c>
       <c r="C13">
-        <v>11.71175523796794</v>
+        <v>8.412705542293738</v>
       </c>
       <c r="D13">
-        <v>6.372128521884206</v>
+        <v>5.847784914473951</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>29.8003525259917</v>
+        <v>23.71474564100938</v>
       </c>
       <c r="G13">
-        <v>3.66325360585657</v>
+        <v>2.089000796120936</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.019904805307185</v>
+        <v>13.37865059124954</v>
       </c>
       <c r="L13">
-        <v>11.08341448168197</v>
+        <v>7.703390069162136</v>
       </c>
       <c r="M13">
-        <v>14.9204096216116</v>
+        <v>11.79049084617659</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>26.51713968830543</v>
+        <v>18.61279252523609</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.20467387148596</v>
+        <v>16.81023045275535</v>
       </c>
       <c r="C14">
-        <v>11.71491749945503</v>
+        <v>8.424985175502117</v>
       </c>
       <c r="D14">
-        <v>6.364813627965623</v>
+        <v>5.827922119266102</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>29.79816077261387</v>
+        <v>23.62869581538072</v>
       </c>
       <c r="G14">
-        <v>3.663583806283438</v>
+        <v>2.089995906969096</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.984966643919829</v>
+        <v>13.27950079867263</v>
       </c>
       <c r="L14">
-        <v>11.08289074062171</v>
+        <v>7.677397542813133</v>
       </c>
       <c r="M14">
-        <v>14.91092407105041</v>
+        <v>11.72044225972594</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>26.5250129753259</v>
+        <v>18.58770762915457</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.17630039523334</v>
+        <v>16.71669151045249</v>
       </c>
       <c r="C15">
-        <v>11.71686704914813</v>
+        <v>8.432531107256466</v>
       </c>
       <c r="D15">
-        <v>6.360320939336578</v>
+        <v>5.815716916061466</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>29.79695333691399</v>
+        <v>23.57631790563445</v>
       </c>
       <c r="G15">
-        <v>3.663787244275062</v>
+        <v>2.090606843457938</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.963519771083647</v>
+        <v>13.21843289731804</v>
       </c>
       <c r="L15">
-        <v>11.08260248929699</v>
+        <v>7.66152653907405</v>
       </c>
       <c r="M15">
-        <v>14.90515467149834</v>
+        <v>11.67744246927414</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>26.52993680820021</v>
+        <v>18.57269537281892</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.01313694418921</v>
+        <v>16.17161752258141</v>
       </c>
       <c r="C16">
-        <v>11.72823217959072</v>
+        <v>8.476148873401614</v>
       </c>
       <c r="D16">
-        <v>6.334391594344551</v>
+        <v>5.745189678890426</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>29.79210583312491</v>
+        <v>23.28122020224617</v>
       </c>
       <c r="G16">
-        <v>3.664971195097554</v>
+        <v>2.094129967818396</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.839942271517232</v>
+        <v>12.86333279212366</v>
       </c>
       <c r="L16">
-        <v>11.08145042065089</v>
+        <v>7.571354545993294</v>
       </c>
       <c r="M16">
-        <v>14.87272313254315</v>
+        <v>11.42964920292592</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>26.55970365323023</v>
+        <v>18.49198924869481</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.91258808541612</v>
+        <v>15.82911761903226</v>
       </c>
       <c r="C17">
-        <v>11.73537694738457</v>
+        <v>8.503244478220717</v>
       </c>
       <c r="D17">
-        <v>6.318323139854271</v>
+        <v>5.701411834388085</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>29.79098213765705</v>
+        <v>23.10470030198546</v>
       </c>
       <c r="G17">
-        <v>3.665713724321537</v>
+        <v>2.096311642956691</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.763568430559168</v>
+        <v>12.64090431499284</v>
       </c>
       <c r="L17">
-        <v>11.08119046569031</v>
+        <v>7.516741863099203</v>
       </c>
       <c r="M17">
-        <v>14.85339607932518</v>
+        <v>11.27645966255333</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>26.57934687512518</v>
+        <v>18.4471333612569</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.85460949053912</v>
+        <v>15.6291198234892</v>
       </c>
       <c r="C18">
-        <v>11.73955001535769</v>
+        <v>8.518954309410862</v>
       </c>
       <c r="D18">
-        <v>6.309022445974133</v>
+        <v>5.676047870663005</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>29.79101616676543</v>
+        <v>23.00482839229801</v>
       </c>
       <c r="G18">
-        <v>3.666146780327689</v>
+        <v>2.097574210905075</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.719448930639274</v>
+        <v>12.51128680207785</v>
       </c>
       <c r="L18">
-        <v>11.08120546188742</v>
+        <v>7.485593353203238</v>
       </c>
       <c r="M18">
-        <v>14.84249097451695</v>
+        <v>11.18793950473113</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>26.59115261138107</v>
+        <v>18.42300606115572</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.83495596828904</v>
+        <v>15.5608868353584</v>
       </c>
       <c r="C19">
-        <v>11.74097387944472</v>
+        <v>8.524294990012669</v>
       </c>
       <c r="D19">
-        <v>6.305863417718256</v>
+        <v>5.667428833341138</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>29.79114457260755</v>
+        <v>22.97129806315782</v>
       </c>
       <c r="G19">
-        <v>3.666294432854036</v>
+        <v>2.098003044540933</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.70447948901967</v>
+        <v>12.46711192790939</v>
       </c>
       <c r="L19">
-        <v>11.08123882377872</v>
+        <v>7.475092622983434</v>
       </c>
       <c r="M19">
-        <v>14.8388352020059</v>
+        <v>11.15790003585449</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>26.59523694172487</v>
+        <v>18.41512062171577</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.923307227986</v>
+        <v>15.86588748099916</v>
       </c>
       <c r="C20">
-        <v>11.73460979699666</v>
+        <v>8.500347176886596</v>
       </c>
       <c r="D20">
-        <v>6.320039732758922</v>
+        <v>5.706091205685817</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>29.79103135189941</v>
+        <v>23.12331955832645</v>
       </c>
       <c r="G20">
-        <v>3.665634062976265</v>
+        <v>2.09607860575739</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.77171871215304</v>
+        <v>12.66475642274045</v>
       </c>
       <c r="L20">
-        <v>11.08120111853406</v>
+        <v>7.522528325863147</v>
       </c>
       <c r="M20">
-        <v>14.8554316596574</v>
+        <v>11.29280987581572</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>26.57720328751105</v>
+        <v>18.45173437712658</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.21826898108249</v>
+        <v>16.85492568705512</v>
       </c>
       <c r="C21">
-        <v>11.71398604715507</v>
+        <v>8.4213732913152</v>
       </c>
       <c r="D21">
-        <v>6.366964716979925</v>
+        <v>5.833764381964271</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>29.79877639768929</v>
+        <v>23.65390194334345</v>
       </c>
       <c r="G21">
-        <v>3.663486572437005</v>
+        <v>2.089703327997293</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.995238546878788</v>
+        <v>13.30869347666382</v>
       </c>
       <c r="L21">
-        <v>11.08303779355433</v>
+        <v>7.685021744694098</v>
       </c>
       <c r="M21">
-        <v>14.91370172345113</v>
+        <v>11.74103671814754</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>26.52267930408266</v>
+        <v>18.5950019058197</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.40930769594273</v>
+        <v>17.47500059165131</v>
       </c>
       <c r="C22">
-        <v>11.70107037414661</v>
+        <v>8.370849997251211</v>
       </c>
       <c r="D22">
-        <v>6.39709342470421</v>
+        <v>5.915485870198901</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>29.80988529625402</v>
+        <v>24.01544114539075</v>
       </c>
       <c r="G22">
-        <v>3.662135946882891</v>
+        <v>2.085600154072532</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.139293537665777</v>
+        <v>13.71452019298661</v>
       </c>
       <c r="L22">
-        <v>11.08569613731465</v>
+        <v>7.793477306745951</v>
       </c>
       <c r="M22">
-        <v>14.95361587339951</v>
+        <v>12.02987494159621</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>26.49157369174848</v>
+        <v>18.70433173979224</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.30752621405037</v>
+        <v>17.14644315586728</v>
       </c>
       <c r="C23">
-        <v>11.70791233301627</v>
+        <v>8.397716583587396</v>
       </c>
       <c r="D23">
-        <v>6.38106340048404</v>
+        <v>5.872030680587456</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>29.80340366540699</v>
+        <v>23.82112897818927</v>
       </c>
       <c r="G23">
-        <v>3.662851976932727</v>
+        <v>2.087784560396675</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.062609369284521</v>
+        <v>13.4992978819533</v>
       </c>
       <c r="L23">
-        <v>11.08414428765688</v>
+        <v>7.735390112931142</v>
       </c>
       <c r="M23">
-        <v>14.93214788346086</v>
+        <v>11.8761120032605</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>26.50776049535061</v>
+        <v>18.6445057332377</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.9184616335078</v>
+        <v>15.84927345561355</v>
       </c>
       <c r="C24">
-        <v>11.73495642179223</v>
+        <v>8.501656634760778</v>
       </c>
       <c r="D24">
-        <v>6.319263856273404</v>
+        <v>5.703976269927136</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>29.7910069836859</v>
+        <v>23.11489677253098</v>
       </c>
       <c r="G24">
-        <v>3.665670058660183</v>
+        <v>2.096183935983692</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.768034623872479</v>
+        <v>12.65397830518156</v>
       </c>
       <c r="L24">
-        <v>11.08119579007303</v>
+        <v>7.519911489320815</v>
       </c>
       <c r="M24">
-        <v>14.85451073071253</v>
+        <v>11.28541933897943</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>26.57817080688713</v>
+        <v>18.4496490933222</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.49351679657644</v>
+        <v>14.33510959135415</v>
       </c>
       <c r="C25">
-        <v>11.76656084581854</v>
+        <v>8.618572138822945</v>
       </c>
       <c r="D25">
-        <v>6.250375692077418</v>
+        <v>5.515721747319405</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.80364490478907</v>
+        <v>22.41643598977672</v>
       </c>
       <c r="G25">
-        <v>3.668938360444367</v>
+        <v>2.105542164501347</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.443195554783166</v>
+        <v>11.67794478812575</v>
       </c>
       <c r="L25">
-        <v>11.08430800810795</v>
+        <v>7.297603069657947</v>
       </c>
       <c r="M25">
-        <v>14.77887089765186</v>
+        <v>10.63297959831234</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>26.67351380495395</v>
+        <v>18.3029147572868</v>
       </c>
     </row>
   </sheetData>
